--- a/statistics/HistoricalDistanceData/historical_distance/Q20671234-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q20671234-en.xlsx
@@ -31,72 +31,72 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Video Shows April DUI Arrest of Chattanooga Gunman Mohammad Abdulazeez</t>
+  </si>
+  <si>
+    <t>Chattanooga Shooting: FBI Reveals New Details</t>
+  </si>
+  <si>
+    <t>Chattanooga Shooting: Attacker Had At Least Three Guns, Authorities Say</t>
+  </si>
+  <si>
     <t>FBI treating Chattanooga shooter as 'homegrown' extremist who acted alone</t>
   </si>
   <si>
+    <t>Chattanooga Shooting: Service Member Opened Fire on Gunman Mohammad Abdulazeez</t>
+  </si>
+  <si>
+    <t>Navy looking at security changes after Chattanooga shooting</t>
+  </si>
+  <si>
+    <t>Reactions to Chattanooga shooting - WTOC-TV: Savannah, Beaufort, SC, News, Weather &amp; Sports</t>
+  </si>
+  <si>
+    <t>How the Chattanooga Shooting Unfolded</t>
+  </si>
+  <si>
     <t>Chattanooga shooter methodically moved through naval reserve center</t>
   </si>
   <si>
-    <t>Chattanooga Shooting: Service Member Opened Fire on Gunman Mohammad Abdulazeez</t>
-  </si>
-  <si>
-    <t>Chattanooga Shooting: Attacker Had At Least Three Guns, Authorities Say</t>
+    <t>Tennessee suspect texted friend link to Islamic verse before attack</t>
   </si>
   <si>
     <t>Tenn. gunman used drugs, struggled with clash of faith</t>
   </si>
   <si>
-    <t>Video Shows April DUI Arrest of Chattanooga Gunman Mohammad Abdulazeez</t>
-  </si>
-  <si>
-    <t>Navy looking at security changes after Chattanooga shooting</t>
-  </si>
-  <si>
-    <t>Tennessee suspect texted friend link to Islamic verse before attack</t>
-  </si>
-  <si>
-    <t>Chattanooga Shooting: FBI Reveals New Details</t>
-  </si>
-  <si>
-    <t>How the Chattanooga Shooting Unfolded</t>
-  </si>
-  <si>
-    <t>Reactions to Chattanooga shooting - WTOC-TV: Savannah, Beaufort, SC, News, Weather &amp; Sports</t>
+    <t>2015-07-29T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-07-22T17:26:00UTC</t>
+  </si>
+  <si>
+    <t>2015-07-17T00:00:00UTC</t>
   </si>
   <si>
     <t>2015-07-22T18:25:15UTC</t>
   </si>
   <si>
+    <t>2015-07-22T16:50:37UTC</t>
+  </si>
+  <si>
+    <t>2015-08-29T15:20:52UTC</t>
+  </si>
+  <si>
+    <t>2015-07-16T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-07-17T20:22:00UTC</t>
+  </si>
+  <si>
     <t>2015-07-22T16:19:15UTC</t>
   </si>
   <si>
-    <t>2015-07-22T16:50:37UTC</t>
-  </si>
-  <si>
-    <t>2015-07-17T00:00:00UTC</t>
+    <t>2015-07-18T22:21:48UTC</t>
   </si>
   <si>
     <t>2015-07-19T00:00:53UTC</t>
   </si>
   <si>
-    <t>2015-07-29T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2015-08-29T15:20:52UTC</t>
-  </si>
-  <si>
-    <t>2015-07-18T22:21:48UTC</t>
-  </si>
-  <si>
-    <t>2015-07-22T17:26:00UTC</t>
-  </si>
-  <si>
-    <t>2015-07-17T20:22:00UTC</t>
-  </si>
-  <si>
-    <t>2015-07-16T00:00:00UTC</t>
-  </si>
-  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
@@ -109,37 +109,37 @@
     <t>day_0</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20150729061430/http://www.nbcnews.com/storyline/chattanooga-shooting/video-shows-dui-arrest-chattanooga-gunman-mohammad-abdulazeez-n400086</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/US/chattanooga-shooting-fbi-reveals-details/story?id=32619426</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20150717211321/http://www.nbcnews.com/storyline/chattanooga-shooting/chattanooga-shooting-attacker-had-least-three-guns-authorities-say-n394046</t>
+  </si>
+  <si>
     <t>https://www.latimes.com/nation/la-na-chattanooga-shooter-20150722-story.html</t>
   </si>
   <si>
+    <t>https://www.nbcnews.com/storyline/chattanooga-shooting/chattanooga-shooting-service-member-opened-fire-chattanooga-gunman-mohammad-abdulazeez-n396596</t>
+  </si>
+  <si>
+    <t>http://www.washingtontimes.com/news/2015/aug/29/navy-looking-at-security-changes-after-chattanooga/</t>
+  </si>
+  <si>
+    <t>http://www.wtoc.com/story/29568358/reactions-to-chattanooga-shooting</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/US/chattanooga-shooting-unfolded/story?id=32516133</t>
+  </si>
+  <si>
     <t>https://www.washingtonpost.com/world/national-security/marines-braved-gunfire-to-save-comrades-in-chattanooga/2015/07/22/9398c088-3078-11e5-97ae-30a30cca95d7_story.html</t>
   </si>
   <si>
-    <t>https://www.nbcnews.com/storyline/chattanooga-shooting/chattanooga-shooting-service-member-opened-fire-chattanooga-gunman-mohammad-abdulazeez-n396596</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20150717211321/http://www.nbcnews.com/storyline/chattanooga-shooting/chattanooga-shooting-attacker-had-least-three-guns-authorities-say-n394046</t>
+    <t>https://news.yahoo.com/u-navy-petty-officer-dies-wounding-tennessee-attack-130542080.html</t>
   </si>
   <si>
     <t>https://www.washingtonpost.com/politics/chattanooga-shooter-an-aimless-young-man-who-smoked-dope-and-shot-guns/2015/07/18/c213f6a6-2d7d-11e5-a5ea-cf74396e59ec_story.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20150729061430/http://www.nbcnews.com/storyline/chattanooga-shooting/video-shows-dui-arrest-chattanooga-gunman-mohammad-abdulazeez-n400086</t>
-  </si>
-  <si>
-    <t>http://www.washingtontimes.com/news/2015/aug/29/navy-looking-at-security-changes-after-chattanooga/</t>
-  </si>
-  <si>
-    <t>https://news.yahoo.com/u-navy-petty-officer-dies-wounding-tennessee-attack-130542080.html</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/US/chattanooga-shooting-fbi-reveals-details/story?id=32619426</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/US/chattanooga-shooting-unfolded/story?id=32516133</t>
-  </si>
-  <si>
-    <t>http://www.wtoc.com/story/29568358/reactions-to-chattanooga-shooting</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -575,10 +575,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -626,10 +626,10 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -643,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -660,10 +660,10 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>38</v>
@@ -694,10 +694,10 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>40</v>
@@ -711,10 +711,10 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
